--- a/ExcelProject/AddCourse.xlsx
+++ b/ExcelProject/AddCourse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1176B-421A-445E-B73B-4A8BF1B72B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29D74B-1035-4C9D-B124-F7957610FF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCourse" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="161">
   <si>
     <t>Execute</t>
   </si>
@@ -262,177 +262,6 @@
   </si>
   <si>
     <t>TC11:75</t>
-  </si>
-  <si>
-    <t>TC11:76</t>
-  </si>
-  <si>
-    <t>TC11:77</t>
-  </si>
-  <si>
-    <t>TC11:78</t>
-  </si>
-  <si>
-    <t>TC11:79</t>
-  </si>
-  <si>
-    <t>TC11:80</t>
-  </si>
-  <si>
-    <t>TC11:81</t>
-  </si>
-  <si>
-    <t>TC11:82</t>
-  </si>
-  <si>
-    <t>TC11:83</t>
-  </si>
-  <si>
-    <t>TC11:84</t>
-  </si>
-  <si>
-    <t>TC11:85</t>
-  </si>
-  <si>
-    <t>TC11:86</t>
-  </si>
-  <si>
-    <t>TC11:87</t>
-  </si>
-  <si>
-    <t>TC11:88</t>
-  </si>
-  <si>
-    <t>TC11:89</t>
-  </si>
-  <si>
-    <t>TC11:90</t>
-  </si>
-  <si>
-    <t>TC11:91</t>
-  </si>
-  <si>
-    <t>TC11:92</t>
-  </si>
-  <si>
-    <t>TC11:93</t>
-  </si>
-  <si>
-    <t>TC11:94</t>
-  </si>
-  <si>
-    <t>TC11:95</t>
-  </si>
-  <si>
-    <t>TC11:96</t>
-  </si>
-  <si>
-    <t>TC11:97</t>
-  </si>
-  <si>
-    <t>TC11:98</t>
-  </si>
-  <si>
-    <t>TC11:99</t>
-  </si>
-  <si>
-    <t>TC11:100</t>
-  </si>
-  <si>
-    <t>TC11:101</t>
-  </si>
-  <si>
-    <t>TC11:102</t>
-  </si>
-  <si>
-    <t>TC11:103</t>
-  </si>
-  <si>
-    <t>TC11:104</t>
-  </si>
-  <si>
-    <t>TC11:105</t>
-  </si>
-  <si>
-    <t>TC11:106</t>
-  </si>
-  <si>
-    <t>TC11:107</t>
-  </si>
-  <si>
-    <t>TC11:108</t>
-  </si>
-  <si>
-    <t>TC11:109</t>
-  </si>
-  <si>
-    <t>TC11:110</t>
-  </si>
-  <si>
-    <t>TC11:111</t>
-  </si>
-  <si>
-    <t>TC11:112</t>
-  </si>
-  <si>
-    <t>TC11:113</t>
-  </si>
-  <si>
-    <t>TC11:114</t>
-  </si>
-  <si>
-    <t>TC11:115</t>
-  </si>
-  <si>
-    <t>TC11:116</t>
-  </si>
-  <si>
-    <t>TC11:117</t>
-  </si>
-  <si>
-    <t>TC11:118</t>
-  </si>
-  <si>
-    <t>TC11:119</t>
-  </si>
-  <si>
-    <t>TC11:120</t>
-  </si>
-  <si>
-    <t>TC11:121</t>
-  </si>
-  <si>
-    <t>TC11:122</t>
-  </si>
-  <si>
-    <t>TC11:123</t>
-  </si>
-  <si>
-    <t>TC11:124</t>
-  </si>
-  <si>
-    <t>TC11:125</t>
-  </si>
-  <si>
-    <t>TC11:126</t>
-  </si>
-  <si>
-    <t>TC11:127</t>
-  </si>
-  <si>
-    <t>TC11:128</t>
-  </si>
-  <si>
-    <t>TC11:129</t>
-  </si>
-  <si>
-    <t>TC11:130</t>
-  </si>
-  <si>
-    <t>TC11:131</t>
-  </si>
-  <si>
-    <t>TC11:132</t>
   </si>
   <si>
     <t>course name</t>
@@ -1083,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1114,43 +943,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -1161,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1172,7 +1001,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1186,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1197,7 +1026,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1222,7 +1051,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1236,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1247,7 +1076,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1261,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1272,7 +1101,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1286,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1297,7 +1126,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1311,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1322,7 +1151,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1336,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1347,7 +1176,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1361,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1372,7 +1201,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1386,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1397,7 +1226,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1411,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1422,7 +1251,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1445,7 +1274,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1460,7 +1289,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1470,7 +1299,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1485,7 +1314,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1495,7 +1324,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1520,7 +1349,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1535,7 +1364,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1545,7 +1374,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1560,7 +1389,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1570,7 +1399,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1585,7 +1414,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1595,7 +1424,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1610,7 +1439,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1620,7 +1449,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1635,7 +1464,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1645,7 +1474,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1660,7 +1489,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1670,7 +1499,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1685,7 +1514,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1695,7 +1524,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1710,7 +1539,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1720,7 +1549,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1743,7 +1572,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1759,7 +1588,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1768,7 +1597,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1784,7 +1613,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="8" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1793,7 +1622,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1809,7 +1638,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="8" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1818,7 +1647,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1834,7 +1663,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1843,7 +1672,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1859,7 +1688,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1868,7 +1697,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1884,7 +1713,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1893,7 +1722,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1909,7 +1738,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="8" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1918,7 +1747,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1934,7 +1763,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="8" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1943,7 +1772,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -1959,7 +1788,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1968,7 +1797,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -1991,7 +1820,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2016,7 +1845,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2041,7 +1870,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2066,7 +1895,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2083,7 +1912,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="10" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2091,7 +1920,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2116,7 +1945,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2141,7 +1970,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2166,7 +1995,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2191,7 +2020,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -2216,7 +2045,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2241,7 +2070,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2264,7 +2093,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2289,7 +2118,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -2314,7 +2143,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -2339,7 +2168,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -2364,7 +2193,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -2389,7 +2218,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2412,7 +2241,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2431,13 +2260,13 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2456,13 +2285,13 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="5" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2481,13 +2310,13 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2512,7 +2341,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2535,7 +2364,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -2560,7 +2389,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -2585,7 +2414,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2610,7 +2439,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -2633,7 +2462,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -2658,7 +2487,7 @@
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -2683,7 +2512,7 @@
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -2704,11 +2533,11 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="15">
-        <v>0.83333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2731,7 +2560,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -2753,10 +2582,10 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="4" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -2778,10 +2607,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="4" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -2803,10 +2632,10 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="5" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -2828,10 +2657,10 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="4" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -2853,10 +2682,10 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="4" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -2878,10 +2707,10 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="4" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -2903,10 +2732,10 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="4" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -2928,10 +2757,10 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="5" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -2953,10 +2782,10 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="5" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -2978,10 +2807,10 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="4" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -3004,467 +2833,11 @@
       <c r="J76" s="3"/>
       <c r="K76" s="7"/>
       <c r="L76" s="3" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
